--- a/biology/Botanique/Renouée_persicaire/Renouée_persicaire.xlsx
+++ b/biology/Botanique/Renouée_persicaire/Renouée_persicaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Renou%C3%A9e_persicaire</t>
+          <t>Renouée_persicaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Persicaria maculosa
 Persicaria maculosa, la Renouée persicaire ou Persicaire douce, Pied-rouge, Pilingre, Fer à cheval, est une plante herbacée annuelle de la famille des Polygonacées. Adventice souvent envahissante.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Renou%C3%A9e_persicaire</t>
+          <t>Renouée_persicaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle doit son nom (comme les autres espèces de son genre) à la forme de ses feuilles, Persicaria signifiant « pêcher » en latin médiéval[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle doit son nom (comme les autres espèces de son genre) à la forme de ses feuilles, Persicaria signifiant « pêcher » en latin médiéval.
 C'est une plante pionnière, nitrophile.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Renou%C3%A9e_persicaire</t>
+          <t>Renouée_persicaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Persicaria dubia (Stein ex A.Braun) Fourr., 1869
 Persicaria fusiformis (Greene) Greene, 1904
@@ -582,7 +598,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Renou%C3%A9e_persicaire</t>
+          <t>Renouée_persicaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -602,8 +618,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractéristiques
-Organes reproducteurs
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : rose ou blanc
 Période de floraison : août-octobre
 Inflorescence : épi de cymes triflores
@@ -629,7 +650,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Renou%C3%A9e_persicaire</t>
+          <t>Renouée_persicaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -647,7 +668,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Riche en tanins, elle fut autrefois utilisée en tant que plante médicinale pour ses propriétés astringentes et vulnéraires.
 </t>
